--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>Relative fluorescence_GFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O/N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -677,16 +673,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -902,22 +898,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -943,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,8 +1009,8 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
+      <c r="H2">
+        <v>16</v>
       </c>
       <c r="I2">
         <v>37</v>
@@ -1023,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1048,8 +1044,8 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
+      <c r="H3">
+        <v>16</v>
       </c>
       <c r="I3">
         <v>37</v>
@@ -1058,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1083,8 +1079,8 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
+      <c r="H4">
+        <v>16</v>
       </c>
       <c r="I4">
         <v>37</v>
@@ -1093,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1118,8 +1114,8 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
+      <c r="H5">
+        <v>16</v>
       </c>
       <c r="I5">
         <v>37</v>
@@ -1128,7 +1124,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1153,8 +1149,8 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
+      <c r="H6">
+        <v>16</v>
       </c>
       <c r="I6">
         <v>37</v>
@@ -1163,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,8 +1184,8 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
+      <c r="H7">
+        <v>16</v>
       </c>
       <c r="I7">
         <v>37</v>
@@ -1198,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1221,19 +1217,19 @@
         <v>5000</v>
       </c>
       <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1256,19 +1252,19 @@
         <v>15000</v>
       </c>
       <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1276,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -1291,19 +1287,19 @@
         <v>15000</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1311,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -1326,19 +1322,19 @@
         <v>15000</v>
       </c>
       <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1346,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1361,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
       </c>
       <c r="I12">
         <v>37</v>
@@ -1373,11 +1369,12 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -264,6 +264,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,11 +318,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1015,7 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>16</v>
       </c>
       <c r="I2">
@@ -1044,7 +1050,7 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>16</v>
       </c>
       <c r="I3">
@@ -1079,7 +1085,7 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>16</v>
       </c>
       <c r="I4">
@@ -1114,7 +1120,7 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>16</v>
       </c>
       <c r="I5">
@@ -1149,7 +1155,7 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>16</v>
       </c>
       <c r="I6">
@@ -1184,7 +1190,7 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>16</v>
       </c>
       <c r="I7">
@@ -1219,7 +1225,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
@@ -1254,7 +1260,7 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
@@ -1289,7 +1295,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
@@ -1324,7 +1330,7 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -265,7 +265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -318,14 +318,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,7 +949,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1021,7 @@
       <c r="H2" s="2">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>37</v>
       </c>
       <c r="J2" t="s">
@@ -1053,7 +1056,7 @@
       <c r="H3" s="2">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>37</v>
       </c>
       <c r="J3" t="s">
@@ -1088,7 +1091,7 @@
       <c r="H4" s="2">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>37</v>
       </c>
       <c r="J4" t="s">
@@ -1123,7 +1126,7 @@
       <c r="H5" s="2">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>37</v>
       </c>
       <c r="J5" t="s">
@@ -1158,7 +1161,7 @@
       <c r="H6" s="2">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>37</v>
       </c>
       <c r="J6" t="s">
@@ -1193,7 +1196,7 @@
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>37</v>
       </c>
       <c r="J7" t="s">
@@ -1228,7 +1231,7 @@
       <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
@@ -1263,7 +1266,7 @@
       <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
@@ -1298,7 +1301,7 @@
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J10" t="s">
@@ -1333,7 +1336,7 @@
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J11" t="s">
@@ -1368,7 +1371,7 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>37</v>
       </c>
       <c r="J12" t="s">

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,40 @@
   </si>
   <si>
     <t>https://2019.igem.org/Team:Stuttgart/Contribution</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -949,7 +983,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,8 +1031,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1019,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3">
         <v>37</v>
@@ -1032,8 +1066,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -1054,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3">
         <v>37</v>
@@ -1067,8 +1101,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1089,7 +1123,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3">
         <v>37</v>
@@ -1102,8 +1136,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1124,7 +1158,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3">
         <v>37</v>
@@ -1137,8 +1171,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1159,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3">
         <v>37</v>
@@ -1172,8 +1206,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1194,7 +1228,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
         <v>37</v>
@@ -1207,8 +1241,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1228,8 +1262,8 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
+      <c r="H8" s="2">
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>20</v>
@@ -1242,8 +1276,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1263,8 +1297,8 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
+      <c r="H9" s="2">
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>20</v>
@@ -1277,8 +1311,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1298,8 +1332,8 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
+      <c r="H10" s="2">
+        <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>20</v>
@@ -1312,8 +1346,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -1333,8 +1367,8 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
+      <c r="H11" s="2">
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>20</v>
@@ -1347,8 +1381,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -1368,8 +1402,8 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="H12">
-        <v>16</v>
+      <c r="H12" s="2">
+        <v>12</v>
       </c>
       <c r="I12" s="3">
         <v>37</v>

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1040,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1075,7 +1075,7 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1110,7 +1110,7 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.5</v>
       </c>
       <c r="E4" t="s">
@@ -1145,7 +1145,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
@@ -1180,7 +1180,7 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -1215,7 +1215,7 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -1250,7 +1250,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -1285,7 +1285,7 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -1320,7 +1320,7 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -1355,7 +1355,7 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -1390,7 +1390,7 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -352,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +986,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1055,7 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>12</v>
       </c>
       <c r="I2" s="3">
@@ -1087,7 +1090,7 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>12</v>
       </c>
       <c r="I3" s="3">
@@ -1122,7 +1125,7 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>12</v>
       </c>
       <c r="I4" s="3">
@@ -1157,7 +1160,7 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>12</v>
       </c>
       <c r="I5" s="3">
@@ -1192,7 +1195,7 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>12</v>
       </c>
       <c r="I6" s="3">
@@ -1227,7 +1230,7 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>12</v>
       </c>
       <c r="I7" s="3">
@@ -1262,7 +1265,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1297,7 +1300,7 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1332,7 +1335,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1367,7 +1370,7 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1402,7 +1405,7 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>12</v>
       </c>
       <c r="I12" s="3">

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -352,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +363,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,7 +983,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,8 +1052,8 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4">
-        <v>12</v>
+      <c r="H2" s="2">
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <v>37</v>
@@ -1090,8 +1087,8 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4">
-        <v>12</v>
+      <c r="H3" s="2">
+        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>37</v>
@@ -1125,8 +1122,8 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4">
-        <v>12</v>
+      <c r="H4" s="2">
+        <v>16</v>
       </c>
       <c r="I4" s="3">
         <v>37</v>
@@ -1160,8 +1157,8 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="4">
-        <v>12</v>
+      <c r="H5" s="2">
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>37</v>
@@ -1195,8 +1192,8 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4">
-        <v>12</v>
+      <c r="H6" s="2">
+        <v>16</v>
       </c>
       <c r="I6" s="3">
         <v>37</v>
@@ -1230,8 +1227,8 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="4">
-        <v>12</v>
+      <c r="H7" s="2">
+        <v>16</v>
       </c>
       <c r="I7" s="3">
         <v>37</v>
@@ -1265,8 +1262,8 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="4">
-        <v>12</v>
+      <c r="H8" s="2">
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>20</v>
@@ -1300,8 +1297,8 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="4">
-        <v>12</v>
+      <c r="H9" s="2">
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>20</v>
@@ -1335,8 +1332,8 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="4">
-        <v>12</v>
+      <c r="H10" s="2">
+        <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>20</v>
@@ -1370,8 +1367,8 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="4">
-        <v>12</v>
+      <c r="H11" s="2">
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>20</v>
@@ -1405,8 +1402,8 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="4">
-        <v>12</v>
+      <c r="H12" s="2">
+        <v>16</v>
       </c>
       <c r="I12" s="3">
         <v>37</v>

--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -352,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +986,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1055,7 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>16</v>
       </c>
       <c r="I2" s="3">
@@ -1087,7 +1090,7 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>16</v>
       </c>
       <c r="I3" s="3">
@@ -1122,7 +1125,7 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>16</v>
       </c>
       <c r="I4" s="3">
@@ -1157,7 +1160,7 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>16</v>
       </c>
       <c r="I5" s="3">
@@ -1192,7 +1195,7 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>16</v>
       </c>
       <c r="I6" s="3">
@@ -1227,7 +1230,7 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>16</v>
       </c>
       <c r="I7" s="3">
@@ -1262,7 +1265,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1297,7 +1300,7 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1332,7 +1335,7 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1367,7 +1370,7 @@
       <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1402,7 +1405,7 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>16</v>
       </c>
       <c r="I12" s="3">
